--- a/server/static/test.xlsx
+++ b/server/static/test.xlsx
@@ -3,15 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <bookViews>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="27870" windowHeight="13020"/>
+  </bookViews>
   <sheets>
     <sheet sheetId="1" name="Лист назначений" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027" fullCalcOnLoad="1"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>Согласовано с заведующим стационаром</t>
   </si>
@@ -37,6 +40,14 @@
     <t/>
   </si>
   <si>
+    <t xml:space="preserve">28.02.23
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test 1212
+</t>
+  </si>
+  <si>
     <t>Ф.И.О. больного</t>
   </si>
   <si>
@@ -49,17 +60,45 @@
     <t>Режим</t>
   </si>
   <si>
+    <t>Трухин Егор Юрьевич</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>диета номер 1</t>
+  </si>
+  <si>
+    <t>Режим 1</t>
+  </si>
+  <si>
     <t>ИНЪЕКЦИИ</t>
   </si>
   <si>
     <t>ВНУТРЕННЕЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.03.23
+03.03.23
+07.03.23
+21.03.23
+10.03.23
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Препарат 1
+Препарат 2
+Препарат 3
+Препарат 4
+Препарат 5
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -68,11 +107,24 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <charset val="204"/>
+      <color theme="1"/>
+      <family val="1"/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <charset val="204"/>
+      <family val="1"/>
       <sz val="8"/>
+      <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
+      <charset val="204"/>
+      <family val="1"/>
       <sz val="14"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="2">
@@ -102,26 +154,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -463,22 +519,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T52"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.94" customWidth="1"/>
-    <col min="3" max="3" width="21.42" customWidth="1"/>
-    <col min="4" max="6" width="9.94" customWidth="1"/>
-    <col min="7" max="7" width="21.42" customWidth="1"/>
-    <col min="8" max="8" width="9.94" customWidth="1"/>
-    <col min="9" max="9" width="7.81" customWidth="1"/>
-    <col min="10" max="11" width="9.28" customWidth="1"/>
-    <col min="12" max="12" width="7.71" customWidth="1"/>
-    <col min="13" max="13" width="7.81" customWidth="1"/>
-    <col min="14" max="15" width="9.28" customWidth="1"/>
-    <col min="16" max="16" width="7.71" customWidth="1"/>
-    <col min="17" max="17" width="7.81" customWidth="1"/>
-    <col min="18" max="19" width="9.28" customWidth="1"/>
-    <col min="20" max="20" width="7.71" customWidth="1"/>
+    <col min="1" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" customWidth="1"/>
+    <col min="10" max="11" width="9.28515625" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" customWidth="1"/>
+    <col min="14" max="15" width="9.28515625" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" customWidth="1"/>
+    <col min="17" max="17" width="7.85546875" customWidth="1"/>
+    <col min="18" max="19" width="9.28515625" customWidth="1"/>
+    <col min="20" max="20" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -587,10 +648,10 @@
       <c r="K4" s="5"/>
       <c r="L4" s="6"/>
       <c r="M4" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O4" s="5"/>
       <c r="P4" s="6"/>
@@ -604,22 +665,22 @@
       <c r="T4" s="6"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="7"/>
+      <c r="E5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="8"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
@@ -634,10 +695,22 @@
       <c r="T5" s="6"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="F6"/>
-      <c r="H6"/>
+      <c r="A6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="9"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -652,14 +725,14 @@
       <c r="T6" s="6"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -678,7 +751,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="2" t="s">
@@ -688,7 +761,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="2" t="s">
@@ -731,10 +804,10 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
@@ -1726,6 +1799,6 @@
     <mergeCell ref="H10:H52"/>
   </mergeCells>
   <pageMargins left="0.21" right="0.21" top="0.21" bottom="0.21" header="0.21" footer="0.21"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>